--- a/dynamics/src/dynamics/xlsx/task_point.xlsx
+++ b/dynamics/src/dynamics/xlsx/task_point.xlsx
@@ -423,202 +423,202 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="n">
-        <v>-0.047</v>
+        <v>-0.061</v>
       </c>
       <c r="B1" t="n">
-        <v>0.026</v>
+        <v>0.037</v>
       </c>
       <c r="C1" t="n">
-        <v>0.522</v>
+        <v>0.368</v>
       </c>
       <c r="D1" t="n">
-        <v>99</v>
+        <v>-173</v>
       </c>
       <c r="E1" t="n">
-        <v>-33</v>
+        <v>37</v>
       </c>
       <c r="F1" t="n">
-        <v>48</v>
+        <v>89</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>-0.479</v>
+        <v>0.118</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.141</v>
+        <v>-0.271</v>
       </c>
       <c r="C2" t="n">
-        <v>0.6870000000000001</v>
+        <v>0.534</v>
       </c>
       <c r="D2" t="n">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="E2" t="n">
-        <v>-62</v>
+        <v>-43</v>
       </c>
       <c r="F2" t="n">
-        <v>72</v>
+        <v>109</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-0.062</v>
+        <v>-0.185</v>
       </c>
       <c r="B3" t="n">
-        <v>-0.307</v>
+        <v>-0.19</v>
       </c>
       <c r="C3" t="n">
-        <v>0.759</v>
+        <v>-0.151</v>
       </c>
       <c r="D3" t="n">
-        <v>110</v>
+        <v>-82</v>
       </c>
       <c r="E3" t="n">
-        <v>-11</v>
+        <v>18</v>
       </c>
       <c r="F3" t="n">
-        <v>72</v>
+        <v>-17</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.043</v>
+        <v>0.158</v>
       </c>
       <c r="B4" t="n">
-        <v>0.153</v>
+        <v>0.288</v>
       </c>
       <c r="C4" t="n">
-        <v>0.496</v>
+        <v>0.113</v>
       </c>
       <c r="D4" t="n">
-        <v>107</v>
+        <v>-62</v>
       </c>
       <c r="E4" t="n">
-        <v>74</v>
+        <v>16</v>
       </c>
       <c r="F4" t="n">
-        <v>-140</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.092</v>
+        <v>0.032</v>
       </c>
       <c r="B5" t="n">
-        <v>0.008</v>
+        <v>-0.081</v>
       </c>
       <c r="C5" t="n">
-        <v>0.281</v>
+        <v>-0.117</v>
       </c>
       <c r="D5" t="n">
-        <v>126</v>
+        <v>89</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="F5" t="n">
-        <v>-2</v>
+        <v>-78</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.378</v>
+        <v>-0.169</v>
       </c>
       <c r="B6" t="n">
-        <v>0.208</v>
+        <v>-0.152</v>
       </c>
       <c r="C6" t="n">
-        <v>0.611</v>
+        <v>0.695</v>
       </c>
       <c r="D6" t="n">
-        <v>-32</v>
+        <v>-40</v>
       </c>
       <c r="E6" t="n">
-        <v>76</v>
+        <v>-27</v>
       </c>
       <c r="F6" t="n">
-        <v>123</v>
+        <v>-34</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>-0.523</v>
+        <v>-0.202</v>
       </c>
       <c r="B7" t="n">
-        <v>0.197</v>
+        <v>0.056</v>
       </c>
       <c r="C7" t="n">
-        <v>-0</v>
+        <v>0.46</v>
       </c>
       <c r="D7" t="n">
-        <v>-150</v>
+        <v>37</v>
       </c>
       <c r="E7" t="n">
-        <v>11</v>
+        <v>-50</v>
       </c>
       <c r="F7" t="n">
-        <v>-170</v>
+        <v>-14</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>-0.354</v>
+        <v>0.187</v>
       </c>
       <c r="B8" t="n">
-        <v>-0.251</v>
+        <v>-0.419</v>
       </c>
       <c r="C8" t="n">
-        <v>0.614</v>
+        <v>0.101</v>
       </c>
       <c r="D8" t="n">
-        <v>69</v>
+        <v>-115</v>
       </c>
       <c r="E8" t="n">
-        <v>-5</v>
+        <v>-6</v>
       </c>
       <c r="F8" t="n">
-        <v>29</v>
+        <v>99</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>-0.223</v>
+        <v>-0.262</v>
       </c>
       <c r="B9" t="n">
-        <v>0.194</v>
+        <v>-0.044</v>
       </c>
       <c r="C9" t="n">
-        <v>0.067</v>
+        <v>0.18</v>
       </c>
       <c r="D9" t="n">
-        <v>-50</v>
+        <v>153</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>-75</v>
       </c>
       <c r="F9" t="n">
-        <v>34</v>
+        <v>-90</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>-0.285</v>
+        <v>0.029</v>
       </c>
       <c r="B10" t="n">
-        <v>-0.168</v>
+        <v>-0.073</v>
       </c>
       <c r="C10" t="n">
-        <v>0.6830000000000001</v>
+        <v>-0.049</v>
       </c>
       <c r="D10" t="n">
-        <v>-60</v>
+        <v>107</v>
       </c>
       <c r="E10" t="n">
-        <v>-13</v>
+        <v>-51</v>
       </c>
       <c r="F10" t="n">
-        <v>169</v>
+        <v>-126</v>
       </c>
     </row>
   </sheetData>
